--- a/WorkDiary/20180903-20180907.xlsx
+++ b/WorkDiary/20180903-20180907.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>周一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,7 +67,16 @@
   </si>
   <si>
     <t>1、学习sdk在Terminal端源代码（到open-api部分为止，open-api部分后面详细整理），并整理文档
-2、学习并整理拼装验证开发者请求信息createReq1ToJSON源码</t>
+2、学习并整理加密验证开发者请求信息createReq1ToJSON源码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、学习并整理解密验证开发者请求信息getMessageParametersFormJSONReq1源码
+2、学习并整理验证开发者响应信息签名生成creatResp1Sign源码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、工作2中的加签内容没有进行的hash加密，为什么？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -485,10 +494,10 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -541,7 +550,9 @@
       <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
@@ -551,7 +562,9 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">

--- a/WorkDiary/20180903-20180907.xlsx
+++ b/WorkDiary/20180903-20180907.xlsx
@@ -66,17 +66,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1、工作2中的加签内容没有进行的hash加密，为什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1、学习sdk在Terminal端源代码（到open-api部分为止，open-api部分后面详细整理），并整理文档
 2、学习并整理加密验证开发者请求信息createReq1ToJSON源码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、学习并整理解密验证开发者请求信息getMessageParametersFormJSONReq1源码
-2、学习并整理验证开发者响应信息签名生成creatResp1Sign源码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、工作2中的加签内容没有进行的hash加密，为什么？</t>
+2、学习并整理验证开发者请求信息验签源码
+3、学习并整理验证开发者响应信息签名生成creatResp1Sign源码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,7 +498,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F7:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -534,7 +535,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="57" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -548,10 +549,10 @@
         <v>11</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.15">
@@ -563,7 +564,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.15">
